--- a/Templates/23_05_08_Json_Excel_Template_journey.xlsx
+++ b/Templates/23_05_08_Json_Excel_Template_journey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FloraValentina/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/Arbeit/Onesome/Coding/Jsons/Json Builder/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F20329-4E1A-5B45-B849-0B6CC0B3FEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DD66CD-DAD4-BD4F-BF6C-8112A33D134D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{10C9D494-FF19-E541-B5E6-AA7C08DB1016}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
     <t>Text</t>
   </si>
@@ -387,12 +387,98 @@
     <t>VALUE_TOP_VALUES</t>
   </si>
   <si>
-    <t>strengths-v1-2-3</t>
-  </si>
-  <si>
-    <r>
-      <t>Benutze das um Referenzen einzufügen. In Das Textfeld kommt dann entweder der referenzierte Screen zb. strengths-v1-2-3 oder die referenzierte Schlüsselerkenntnis zb. VALUE_TOP_VALUES
-(</t>
+    <t>Kurztrip/Reise</t>
+  </si>
+  <si>
+    <t>Reise</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>Beschreibung</t>
+  </si>
+  <si>
+    <t>Neue Etappe</t>
+  </si>
+  <si>
+    <t>ANSWER OPTION</t>
+  </si>
+  <si>
+    <t>OPTIONAL</t>
+  </si>
+  <si>
+    <t>SEVERAL ANSWER OPTIONS</t>
+  </si>
+  <si>
+    <t>Etappen-Titel</t>
+  </si>
+  <si>
+    <t>Text kann frei bleiben</t>
+  </si>
+  <si>
+    <t>Titel Etappe 2</t>
+  </si>
+  <si>
+    <t>OASE Zuordnung</t>
+  </si>
+  <si>
+    <t>OASE Bereiche</t>
+  </si>
+  <si>
+    <t>orientation</t>
+  </si>
+  <si>
+    <t>awareness</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>social_relations</t>
+  </si>
+  <si>
+    <t>none (Kurztrip)</t>
+  </si>
+  <si>
+    <t>Etappenweise zum Ziel</t>
+  </si>
+  <si>
+    <t>Kurztrip</t>
+  </si>
+  <si>
+    <t>für Kurztrip genutzt</t>
+  </si>
+  <si>
+    <t>für Reise genutzt</t>
+  </si>
+  <si>
+    <t>Unterschiedliche Aufrufe am Anfang einer session</t>
+  </si>
+  <si>
+    <t>Unterschiedliche Inhalte</t>
+  </si>
+  <si>
+    <t>Besteht aus mehreren Etappen, kann nur einmal durchgemacht werden</t>
+  </si>
+  <si>
+    <t>Besteht nur aus einer Etappe, kann öfter bearbeitet werden</t>
+  </si>
+  <si>
+    <t>Minimale Zeit, die für die Etappe benötigt wird</t>
+  </si>
+  <si>
+    <t>Maximale Zeit, die für die Etappe benötigt wird</t>
+  </si>
+  <si>
+    <t>Titel der Etappe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hiermit kann eine neue Etappe begonnen werden. Es wird wie eine neue Frage eingefügt. </t>
     </r>
     <r>
       <rPr>
@@ -400,7 +486,7 @@
         <color rgb="FFC00000"/>
         <rFont val="Calibri (Textkörper)"/>
       </rPr>
-      <t>Achtung: Wenn der key nicht existiert bei dem user dann wird der screen einfach geskippt, daher achte drauf, dass es auch ohne den Screen Sinn macht</t>
+      <t>(Jede neue Etappe brauch einen Etappen-Titel, eine Zeit min und eine Zeit max</t>
     </r>
     <r>
       <rPr>
@@ -414,64 +500,28 @@
     </r>
   </si>
   <si>
-    <t>Kurztrip/Reise</t>
-  </si>
-  <si>
-    <t>Reise</t>
-  </si>
-  <si>
-    <t>Titel</t>
-  </si>
-  <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>Neue Etappe</t>
-  </si>
-  <si>
-    <t>ANSWER OPTION</t>
-  </si>
-  <si>
-    <t>OPTIONAL</t>
-  </si>
-  <si>
-    <t>SEVERAL ANSWER OPTIONS</t>
-  </si>
-  <si>
-    <t>Etappen-Titel</t>
-  </si>
-  <si>
-    <t>Text kann frei bleiben</t>
-  </si>
-  <si>
-    <t>Titel Etappe 2</t>
-  </si>
-  <si>
-    <t>OASE Zuordnung</t>
-  </si>
-  <si>
-    <t>OASE Bereiche</t>
-  </si>
-  <si>
-    <t>orientation</t>
-  </si>
-  <si>
-    <t>awareness</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>social_relations</t>
-  </si>
-  <si>
-    <t>none (Kurztrip)</t>
-  </si>
-  <si>
-    <t>Etappenweise zum Ziel</t>
+    <r>
+      <t>Benutze das um Referenzen einzufügen. In Das Textfeld kommt dann die referenzierte Schlüsselerkenntnis zb. VALUE_TOP_VALUES
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Textkörper)"/>
+      </rPr>
+      <t>Achtung: Wenn der key nicht existiert bei dem user dann wird der screen einfach geskippt, daher achte drauf, dass es auch ohne den Screen Sinn macht</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -559,7 +609,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -584,8 +634,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -617,12 +673,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -659,39 +728,20 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Überschrift 2" xfId="1" builtinId="17"/>
   </cellStyles>
-  <dxfs count="77">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="74">
     <dxf>
       <fill>
         <patternFill>
@@ -1216,10 +1266,10 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tabellenformat 1" pivot="0" count="1" xr9:uid="{DC516747-FE49-2B43-ABAA-5D49823D416B}">
-      <tableStyleElement type="firstColumnStripe" dxfId="76"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="73"/>
     </tableStyle>
     <tableStyle name="Tabellenformat 2" pivot="0" count="1" xr9:uid="{82F3207E-491C-C845-8AB5-3606B1EA86FB}">
-      <tableStyleElement type="secondColumnStripe" dxfId="75"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="72"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1532,13 +1582,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA3210E-E7A6-2043-8156-8087E806CB00}">
   <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="66" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.83203125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="36.83203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
     <col min="3" max="3" width="27.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" style="2" customWidth="1"/>
@@ -1600,10 +1650,10 @@
     </row>
     <row r="2" spans="1:16" ht="35" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>1</v>
@@ -1624,10 +1674,10 @@
         <v>32</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>1</v>
@@ -1638,10 +1688,10 @@
     </row>
     <row r="3" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>2</v>
@@ -1662,10 +1712,10 @@
         <v>35</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>2</v>
@@ -1676,7 +1726,7 @@
     </row>
     <row r="4" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1688,10 +1738,10 @@
         <v>53</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>56</v>
@@ -1714,7 +1764,7 @@
     </row>
     <row r="5" spans="1:16" ht="85" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
@@ -1729,10 +1779,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>24</v>
@@ -1749,7 +1799,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>16</v>
@@ -1758,16 +1808,16 @@
         <v>18</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:16" ht="85" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -1777,12 +1827,6 @@
       </c>
       <c r="D7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -1808,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>17</v>
@@ -1822,7 +1866,7 @@
         <v>15</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>47</v>
@@ -2018,67 +2062,51 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="Neue Etappe">
+    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Neue Etappe">
       <formula>NOT(ISERROR(SEARCH("Neue Etappe",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4">
-    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="Zeit min">
+    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Zeit min">
       <formula>NOT(ISERROR(SEARCH("Zeit min",E4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Etappen-Titel">
+    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Etappen-Titel">
       <formula>NOT(ISERROR(SEARCH("Etappen-Titel",E4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="Neue Etappe">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Neue Etappe">
       <formula>NOT(ISERROR(SEARCH("Neue Etappe",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="Zeit min">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Zeit min">
       <formula>NOT(ISERROR(SEARCH("Zeit min",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="19" operator="containsText" text="Etappen-Titel">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Etappen-Titel">
       <formula>NOT(ISERROR(SEARCH("Etappen-Titel",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="Neue Etappe">
+    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Neue Etappe">
       <formula>NOT(ISERROR(SEARCH("Neue Etappe",E6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6">
-    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="Zeit max">
+    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Zeit max">
       <formula>NOT(ISERROR(SEARCH("Zeit max",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="Zeit min">
+    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Zeit min">
       <formula>NOT(ISERROR(SEARCH("Zeit min",E6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="Etappen-Titel">
+    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Etappen-Titel">
       <formula>NOT(ISERROR(SEARCH("Etappen-Titel",E6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="Neue Etappe">
-      <formula>NOT(ISERROR(SEARCH("Neue Etappe",E7)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="containsText" dxfId="10" priority="9" operator="containsText" text="Zeit max">
-      <formula>NOT(ISERROR(SEARCH("Zeit max",E7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="Zeit min">
-      <formula>NOT(ISERROR(SEARCH("Zeit min",E7)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="11" operator="containsText" text="Etappen-Titel">
-      <formula>NOT(ISERROR(SEARCH("Etappen-Titel",E7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
@@ -2100,12 +2128,12 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A70D5D76-6EC3-8746-90E7-D0AA48AE3965}">
           <x14:formula1>
             <xm:f>Erklärungen!$A$1:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I5 K2:K4 G2:G5 E2:E7 C2:C10 A12</xm:sqref>
+          <xm:sqref>I2:I5 K2:K5 G2:G5 C2:C10 A12 E2:E6</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{96DB0084-D0CF-5642-BC2C-2EEA1D574AD2}">
           <x14:formula1>
@@ -2119,6 +2147,12 @@
           </x14:formula1>
           <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{98BFBCD5-EA1A-6E42-BA5C-CE95EF2B7136}">
+          <x14:formula1>
+            <xm:f>Erklärungen!$A$39:$A$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -2127,10 +2161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B2357A5-20B8-E04D-B005-78DA48C95BE8}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2204,12 +2238,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="119" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="102" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="85" x14ac:dyDescent="0.2">
@@ -2222,7 +2256,7 @@
     </row>
     <row r="11" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>21</v>
@@ -2230,7 +2264,7 @@
     </row>
     <row r="12" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>46</v>
@@ -2238,90 +2272,132 @@
     </row>
     <row r="13" spans="1:2" ht="119" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:1" ht="17" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="16"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
